--- a/Nvidia Networking Parameters.xlsx
+++ b/Nvidia Networking Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nvidia-my.sharepoint.com/personal/zivba_nvidia_com/Documents/Desktop/Work/Telemetry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{83A342E7-7BFB-45BA-BEFA-9E4F3DD60A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{83A342E7-7BFB-45BA-BEFA-9E4F3DD60A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{782AD3B4-315F-489A-808E-E16A79098561}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3868" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="995">
   <si>
     <t>Parameter name</t>
   </si>
@@ -3253,6 +3253,9 @@
   </si>
   <si>
     <t>Number of ARN packets with passon action that were dropped by FDS fifo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
   </si>
 </sst>
 </file>
@@ -3925,13 +3928,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6464B5BF-4CC9-4A24-B022-56958197A3E7}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AD207"/>
+  <dimension ref="A1:AD210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14983,6 +14986,11 @@
       </c>
       <c r="B207" s="17" t="s">
         <v>845</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="17" t="s">
+        <v>994</v>
       </c>
     </row>
   </sheetData>

--- a/Nvidia Networking Parameters.xlsx
+++ b/Nvidia Networking Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nvidia-my.sharepoint.com/personal/zivba_nvidia_com/Documents/Desktop/Work/Telemetry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{83A342E7-7BFB-45BA-BEFA-9E4F3DD60A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{782AD3B4-315F-489A-808E-E16A79098561}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{83A342E7-7BFB-45BA-BEFA-9E4F3DD60A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7559FE65-4EAC-4F8C-85C9-7D15DDA194AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="996">
   <si>
     <t>Parameter name</t>
   </si>
@@ -3256,6 +3256,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -3928,13 +3931,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6464B5BF-4CC9-4A24-B022-56958197A3E7}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AD210"/>
+  <dimension ref="A1:AD211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B160" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A211" sqref="A211"/>
+      <selection pane="bottomRight" activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14991,6 +14994,11 @@
     <row r="210" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
         <v>994</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="17" t="s">
+        <v>995</v>
       </c>
     </row>
   </sheetData>
